--- a/data/trans_orig/P16A04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A04-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{664148F7-97B2-44C0-8734-EB651F7CD4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{552C461F-5BC3-4E79-8042-B1A132E91C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A484BCA6-6E25-441D-9864-8E8AF7B6BDAC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E3631082-B2BA-4244-B574-B901CBBC9D60}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="273">
   <si>
     <t>Población que ha consumido antibióticos en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -308,484 +308,556 @@
     <t>2,32%</t>
   </si>
   <si>
-    <t>4,77%</t>
+    <t>4,86%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
     <t>3,73%</t>
   </si>
   <si>
-    <t>2,97%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
   </si>
   <si>
     <t>97,67%</t>
   </si>
   <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
   </si>
   <si>
     <t>96,8%</t>
   </si>
   <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2C45A8-9EF8-4E49-B6EB-EB5E6268A8FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C62E380-D265-4C3E-A64D-C28EA0C26C5F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1948,7 +2020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585E1FEA-FD92-4837-8430-7985A319BF4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACFD073-8A30-4AA1-98C4-65A7DAE02CFF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2090,10 +2162,10 @@
         <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M4" s="7">
         <v>62</v>
@@ -2102,13 +2174,13 @@
         <v>68485</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2123,13 +2195,13 @@
         <v>936589</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>1210</v>
@@ -2138,13 +2210,13 @@
         <v>1298204</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>2086</v>
@@ -2153,13 +2225,13 @@
         <v>2234793</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,13 +2299,13 @@
         <v>54510</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>54</v>
@@ -2242,13 +2314,13 @@
         <v>59035</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>101</v>
@@ -2257,13 +2329,13 @@
         <v>113545</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,13 +2350,13 @@
         <v>1904618</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>1575</v>
@@ -2293,13 +2365,13 @@
         <v>1691816</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>3379</v>
@@ -2308,13 +2380,13 @@
         <v>3596435</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,13 +2454,13 @@
         <v>9239</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2397,13 +2469,13 @@
         <v>6854</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -2412,13 +2484,13 @@
         <v>16093</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,10 +2505,10 @@
         <v>471093</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>43</v>
@@ -2448,13 +2520,13 @@
         <v>450800</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M11" s="7">
         <v>835</v>
@@ -2463,13 +2535,13 @@
         <v>921893</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,13 +2609,13 @@
         <v>96805</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>93</v>
@@ -2552,13 +2624,13 @@
         <v>101318</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="M13" s="7">
         <v>176</v>
@@ -2567,13 +2639,13 @@
         <v>198123</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,13 +2660,13 @@
         <v>3312301</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="H14" s="7">
         <v>3190</v>
@@ -2603,13 +2675,13 @@
         <v>3440820</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>6300</v>
@@ -2618,13 +2690,13 @@
         <v>6753121</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,7 +2771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684C7A69-BEC5-40E1-836F-F92423CA0848}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6678E8FB-436D-43D7-979B-2DF6FEC554D7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2716,7 +2788,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2823,13 +2895,13 @@
         <v>9307</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -2838,13 +2910,13 @@
         <v>22717</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -2853,13 +2925,13 @@
         <v>32025</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2874,13 +2946,13 @@
         <v>745040</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="H5" s="7">
         <v>872</v>
@@ -2889,13 +2961,13 @@
         <v>971943</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>1624</v>
@@ -2904,13 +2976,13 @@
         <v>1716982</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,13 +3050,13 @@
         <v>45666</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -2993,13 +3065,13 @@
         <v>41152</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>81</v>
@@ -3008,13 +3080,13 @@
         <v>86818</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,13 +3101,13 @@
         <v>2030719</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="H8" s="7">
         <v>1869</v>
@@ -3044,13 +3116,13 @@
         <v>1947148</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="M8" s="7">
         <v>3779</v>
@@ -3059,13 +3131,13 @@
         <v>3977867</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,13 +3205,13 @@
         <v>14162</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3148,13 +3220,13 @@
         <v>14668</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -3163,13 +3235,13 @@
         <v>28830</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,13 +3256,13 @@
         <v>532724</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7">
         <v>513</v>
@@ -3199,13 +3271,13 @@
         <v>534472</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="M11" s="7">
         <v>1001</v>
@@ -3214,13 +3286,13 @@
         <v>1067196</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,13 +3360,13 @@
         <v>69134</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
@@ -3306,10 +3378,10 @@
         <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>17</v>
+        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>137</v>
@@ -3318,13 +3390,13 @@
         <v>147672</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,13 +3411,13 @@
         <v>3308484</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>116</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="H14" s="7">
         <v>3254</v>
@@ -3357,10 +3429,10 @@
         <v>44</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>27</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>6404</v>
@@ -3369,13 +3441,13 @@
         <v>6762046</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>26</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,7 +3522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CC0FCC-DB64-4FC5-B73D-DFEDC694D434}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AD8610-176B-4C14-9555-93E55B571962}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3467,7 +3539,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3574,13 +3646,13 @@
         <v>21097</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="H4" s="7">
         <v>62</v>
@@ -3589,13 +3661,13 @@
         <v>45348</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="M4" s="7">
         <v>89</v>
@@ -3604,13 +3676,13 @@
         <v>66445</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3697,13 @@
         <v>518945</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="H5" s="7">
         <v>1361</v>
@@ -3640,13 +3712,13 @@
         <v>786220</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="M5" s="7">
         <v>2023</v>
@@ -3655,13 +3727,13 @@
         <v>1305166</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>190</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3801,13 @@
         <v>49407</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="H7" s="7">
         <v>90</v>
@@ -3744,13 +3816,13 @@
         <v>59525</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>53</v>
+        <v>231</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="M7" s="7">
         <v>136</v>
@@ -3759,13 +3831,13 @@
         <v>108932</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>53</v>
+        <v>234</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>217</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,28 +3852,28 @@
         <v>2112615</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="H8" s="7">
         <v>2830</v>
       </c>
       <c r="I8" s="7">
-        <v>2189271</v>
+        <v>2189270</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>60</v>
+        <v>238</v>
       </c>
       <c r="M8" s="7">
         <v>4776</v>
@@ -3810,13 +3882,13 @@
         <v>4301885</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>60</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,7 +3915,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2248795</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3884,13 +3956,13 @@
         <v>8092</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -3899,13 +3971,13 @@
         <v>16503</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>121</v>
+        <v>245</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -3914,13 +3986,13 @@
         <v>24594</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,13 +4007,13 @@
         <v>664947</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>29</v>
+        <v>251</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="H11" s="7">
         <v>979</v>
@@ -3950,13 +4022,13 @@
         <v>697383</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="M11" s="7">
         <v>1651</v>
@@ -3965,13 +4037,13 @@
         <v>1362332</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,13 +4111,13 @@
         <v>78595</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>136</v>
+        <v>259</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>260</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="H13" s="7">
         <v>177</v>
@@ -4054,13 +4126,13 @@
         <v>121376</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="M13" s="7">
         <v>259</v>
@@ -4069,13 +4141,13 @@
         <v>199971</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,13 +4162,13 @@
         <v>3296509</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>143</v>
+        <v>266</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>168</v>
+        <v>267</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>268</v>
       </c>
       <c r="H14" s="7">
         <v>5170</v>
@@ -4105,13 +4177,13 @@
         <v>3672874</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="M14" s="7">
         <v>8450</v>
@@ -4120,13 +4192,13 @@
         <v>6969383</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A04-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{552C461F-5BC3-4E79-8042-B1A132E91C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5387D0C1-B735-4BA6-B09A-E77601368C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E3631082-B2BA-4244-B574-B901CBBC9D60}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8C5E59F7-9F61-427C-92CC-417D7E02DB97}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="263">
   <si>
     <t>Población que ha consumido antibióticos en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>3,14%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
   </si>
   <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
   </si>
   <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>96,86%</t>
   </si>
   <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
   </si>
   <si>
     <t>97,44%</t>
   </si>
   <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
   </si>
   <si>
     <t>97,18%</t>
   </si>
   <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -143,715 +143,685 @@
     <t>0,83%</t>
   </si>
   <si>
-    <t>1,88%</t>
+    <t>1,87%</t>
   </si>
   <si>
     <t>2,22%</t>
   </si>
   <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
     <t>1,57%</t>
   </si>
   <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
     <t>3,05%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
   </si>
   <si>
     <t>96,95%</t>
   </si>
   <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
   </si>
   <si>
     <t>97,21%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
   </si>
   <si>
     <t>96,74%</t>
@@ -1269,7 +1239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C62E380-D265-4C3E-A64D-C28EA0C26C5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D180DC-719D-4D77-832A-89EE5AB510E4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1584,7 +1554,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1599,13 +1569,13 @@
         <v>1670647</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1519</v>
@@ -1614,13 +1584,13 @@
         <v>1552407</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3145</v>
@@ -1629,13 +1599,13 @@
         <v>3223056</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1691,7 +1661,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1703,13 +1673,13 @@
         <v>4516</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -1718,13 +1688,13 @@
         <v>5810</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -1733,13 +1703,13 @@
         <v>10326</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1754,13 +1724,13 @@
         <v>546892</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>446</v>
@@ -1769,13 +1739,13 @@
         <v>470602</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>969</v>
@@ -1784,10 +1754,10 @@
         <v>1017494</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>66</v>
@@ -1858,13 +1828,13 @@
         <v>58663</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>74</v>
@@ -1873,13 +1843,13 @@
         <v>74790</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>133</v>
@@ -1888,13 +1858,13 @@
         <v>133452</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1909,13 +1879,13 @@
         <v>3216862</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>3223</v>
@@ -1924,28 +1894,28 @@
         <v>3304408</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>6377</v>
       </c>
       <c r="N14" s="7">
-        <v>6521270</v>
+        <v>6521271</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,7 +1957,7 @@
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2001,7 +1971,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2020,7 +1990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACFD073-8A30-4AA1-98C4-65A7DAE02CFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD42CB9-3725-44EC-85D3-552FA0A28994}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2037,7 +2007,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2144,13 +2114,13 @@
         <v>33056</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
@@ -2159,13 +2129,13 @@
         <v>35428</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M4" s="7">
         <v>62</v>
@@ -2174,13 +2144,13 @@
         <v>68485</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,13 +2165,13 @@
         <v>936589</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H5" s="7">
         <v>1210</v>
@@ -2210,13 +2180,13 @@
         <v>1298204</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M5" s="7">
         <v>2086</v>
@@ -2225,13 +2195,13 @@
         <v>2234793</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2299,13 +2269,13 @@
         <v>54510</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H7" s="7">
         <v>54</v>
@@ -2314,13 +2284,13 @@
         <v>59035</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M7" s="7">
         <v>101</v>
@@ -2329,13 +2299,13 @@
         <v>113545</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2350,13 +2320,13 @@
         <v>1904618</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H8" s="7">
         <v>1575</v>
@@ -2365,13 +2335,13 @@
         <v>1691816</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M8" s="7">
         <v>3379</v>
@@ -2380,13 +2350,13 @@
         <v>3596435</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,7 +2412,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2454,13 +2424,13 @@
         <v>9239</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2469,13 +2439,13 @@
         <v>6854</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -2484,13 +2454,13 @@
         <v>16093</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,13 +2475,13 @@
         <v>471093</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="H11" s="7">
         <v>405</v>
@@ -2520,13 +2490,13 @@
         <v>450800</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="M11" s="7">
         <v>835</v>
@@ -2535,13 +2505,13 @@
         <v>921893</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,13 +2579,13 @@
         <v>96805</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H13" s="7">
         <v>93</v>
@@ -2624,13 +2594,13 @@
         <v>101318</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M13" s="7">
         <v>176</v>
@@ -2639,13 +2609,13 @@
         <v>198123</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,13 +2630,13 @@
         <v>3312301</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H14" s="7">
         <v>3190</v>
@@ -2675,13 +2645,13 @@
         <v>3440820</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>6300</v>
@@ -2690,13 +2660,13 @@
         <v>6753121</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,7 +2722,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2771,7 +2741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6678E8FB-436D-43D7-979B-2DF6FEC554D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8291D8AF-8779-4162-B8A6-26B1900C014A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2788,7 +2758,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2895,13 +2865,13 @@
         <v>9307</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -2910,13 +2880,13 @@
         <v>22717</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -2925,13 +2895,13 @@
         <v>32025</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,13 +2916,13 @@
         <v>745040</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H5" s="7">
         <v>872</v>
@@ -2961,13 +2931,13 @@
         <v>971943</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M5" s="7">
         <v>1624</v>
@@ -2976,13 +2946,13 @@
         <v>1716982</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>171</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,13 +3020,13 @@
         <v>45666</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -3065,13 +3035,13 @@
         <v>41152</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>81</v>
@@ -3080,13 +3050,13 @@
         <v>86818</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>178</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3071,13 @@
         <v>2030719</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>1869</v>
@@ -3116,13 +3086,13 @@
         <v>1947148</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>3779</v>
@@ -3131,13 +3101,13 @@
         <v>3977867</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,7 +3163,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3205,13 +3175,13 @@
         <v>14162</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3220,13 +3190,13 @@
         <v>14668</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -3235,13 +3205,13 @@
         <v>28830</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,13 +3226,13 @@
         <v>532724</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="H11" s="7">
         <v>513</v>
@@ -3271,13 +3241,13 @@
         <v>534472</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="M11" s="7">
         <v>1001</v>
@@ -3286,13 +3256,13 @@
         <v>1067196</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>26</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,13 +3330,13 @@
         <v>69134</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>106</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
@@ -3378,10 +3348,10 @@
         <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="M13" s="7">
         <v>137</v>
@@ -3390,13 +3360,13 @@
         <v>147672</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,13 +3381,13 @@
         <v>3308484</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>116</v>
+        <v>199</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="H14" s="7">
         <v>3254</v>
@@ -3426,13 +3396,13 @@
         <v>3453562</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>6404</v>
@@ -3441,13 +3411,13 @@
         <v>6762046</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>116</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,7 +3473,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3522,7 +3492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AD8610-176B-4C14-9555-93E55B571962}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C78FAA4-B517-46C8-BAD8-769024F47607}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3539,7 +3509,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3646,13 +3616,13 @@
         <v>21097</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="H4" s="7">
         <v>62</v>
@@ -3661,13 +3631,13 @@
         <v>45348</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="M4" s="7">
         <v>89</v>
@@ -3676,13 +3646,13 @@
         <v>66445</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +3667,13 @@
         <v>518945</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="H5" s="7">
         <v>1361</v>
@@ -3712,13 +3682,13 @@
         <v>786220</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="M5" s="7">
         <v>2023</v>
@@ -3727,13 +3697,13 @@
         <v>1305166</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>121</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,13 +3771,13 @@
         <v>49407</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>230</v>
+        <v>37</v>
       </c>
       <c r="H7" s="7">
         <v>90</v>
@@ -3816,13 +3786,13 @@
         <v>59525</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>231</v>
+        <v>101</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="M7" s="7">
         <v>136</v>
@@ -3831,13 +3801,13 @@
         <v>108932</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,13 +3822,13 @@
         <v>2112615</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>236</v>
+        <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="H8" s="7">
         <v>2830</v>
@@ -3867,13 +3837,13 @@
         <v>2189270</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>238</v>
+        <v>110</v>
       </c>
       <c r="M8" s="7">
         <v>4776</v>
@@ -3882,13 +3852,13 @@
         <v>4301885</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,7 +3914,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3956,13 +3926,13 @@
         <v>8092</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -3971,13 +3941,13 @@
         <v>16503</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -3986,13 +3956,13 @@
         <v>24594</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>247</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,13 +3977,13 @@
         <v>664947</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H11" s="7">
         <v>979</v>
@@ -4022,13 +3992,13 @@
         <v>697383</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="M11" s="7">
         <v>1651</v>
@@ -4037,13 +4007,13 @@
         <v>1362332</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>256</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4081,13 @@
         <v>78595</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>259</v>
+        <v>84</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>261</v>
+        <v>166</v>
       </c>
       <c r="H13" s="7">
         <v>177</v>
@@ -4126,13 +4096,13 @@
         <v>121376</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="M13" s="7">
         <v>259</v>
@@ -4141,13 +4111,13 @@
         <v>199971</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4132,13 @@
         <v>3296509</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>266</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>267</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="H14" s="7">
         <v>5170</v>
@@ -4177,13 +4147,13 @@
         <v>3672874</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>8450</v>
@@ -4192,13 +4162,13 @@
         <v>6969383</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,7 +4224,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A04-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5387D0C1-B735-4BA6-B09A-E77601368C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D8C2C71-0F51-4D2F-9879-6C1D92B80B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8C5E59F7-9F61-427C-92CC-417D7E02DB97}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BE1EAB94-ED43-4891-9852-A6C91E78DA72}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="249">
   <si>
     <t>Población que ha consumido antibióticos en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,763 +71,721 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>3,14%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
   </si>
   <si>
     <t>2,56%</t>
   </si>
   <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
   </si>
   <si>
     <t>98,21%</t>
   </si>
   <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
   <si>
     <t>97,79%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
   </si>
   <si>
     <t>98,23%</t>
   </si>
   <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
     <t>97,47%</t>
   </si>
   <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
+    <t>98,76%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>3,96%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
   </si>
   <si>
     <t>96,8%</t>
   </si>
   <si>
-    <t>96,04%</t>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
   </si>
   <si>
     <t>97,21%</t>
   </si>
   <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D180DC-719D-4D77-832A-89EE5AB510E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95CCA16-A407-42FA-938E-E0C35E1F225D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1554,7 +1512,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1569,13 +1527,13 @@
         <v>1670647</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1519</v>
@@ -1584,13 +1542,13 @@
         <v>1552407</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3145</v>
@@ -1599,13 +1557,13 @@
         <v>3223056</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1661,7 +1619,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1673,13 +1631,13 @@
         <v>4516</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -1688,13 +1646,13 @@
         <v>5810</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -1703,13 +1661,13 @@
         <v>10326</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,13 +1682,13 @@
         <v>546892</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>446</v>
@@ -1739,13 +1697,13 @@
         <v>470602</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>969</v>
@@ -1754,10 +1712,10 @@
         <v>1017494</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>66</v>
@@ -1828,13 +1786,13 @@
         <v>58663</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>74</v>
@@ -1843,13 +1801,13 @@
         <v>74790</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>133</v>
@@ -1858,13 +1816,13 @@
         <v>133452</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1879,13 +1837,13 @@
         <v>3216862</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>3223</v>
@@ -1894,28 +1852,28 @@
         <v>3304408</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>6377</v>
       </c>
       <c r="N14" s="7">
-        <v>6521271</v>
+        <v>6521270</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,7 +1915,7 @@
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1971,7 +1929,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1990,7 +1948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD42CB9-3725-44EC-85D3-552FA0A28994}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF79531-5EF3-41B7-B454-F2C33CEC153B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2007,7 +1965,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2114,13 +2072,13 @@
         <v>33056</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
@@ -2129,13 +2087,13 @@
         <v>35428</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M4" s="7">
         <v>62</v>
@@ -2144,13 +2102,13 @@
         <v>68485</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,13 +2123,13 @@
         <v>936589</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H5" s="7">
         <v>1210</v>
@@ -2180,13 +2138,13 @@
         <v>1298204</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="M5" s="7">
         <v>2086</v>
@@ -2195,13 +2153,13 @@
         <v>2234793</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2269,13 +2227,13 @@
         <v>54510</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H7" s="7">
         <v>54</v>
@@ -2284,13 +2242,13 @@
         <v>59035</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M7" s="7">
         <v>101</v>
@@ -2299,13 +2257,13 @@
         <v>113545</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,13 +2278,13 @@
         <v>1904618</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H8" s="7">
         <v>1575</v>
@@ -2335,13 +2293,13 @@
         <v>1691816</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="M8" s="7">
         <v>3379</v>
@@ -2350,13 +2308,13 @@
         <v>3596435</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,7 +2370,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2424,13 +2382,13 @@
         <v>9239</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2439,13 +2397,13 @@
         <v>6854</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -2454,13 +2412,13 @@
         <v>16093</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,13 +2433,13 @@
         <v>471093</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7">
         <v>405</v>
@@ -2493,10 +2451,10 @@
         <v>128</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M11" s="7">
         <v>835</v>
@@ -2505,10 +2463,10 @@
         <v>921893</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>132</v>
@@ -2582,10 +2540,10 @@
         <v>133</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H13" s="7">
         <v>93</v>
@@ -2594,13 +2552,13 @@
         <v>101318</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M13" s="7">
         <v>176</v>
@@ -2609,13 +2567,13 @@
         <v>198123</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,13 +2588,13 @@
         <v>3312301</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="H14" s="7">
         <v>3190</v>
@@ -2645,13 +2603,13 @@
         <v>3440820</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="M14" s="7">
         <v>6300</v>
@@ -2660,13 +2618,13 @@
         <v>6753121</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,7 +2680,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2741,7 +2699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8291D8AF-8779-4162-B8A6-26B1900C014A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EA111C-D87E-4331-B978-479D70BABF42}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2758,7 +2716,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2865,13 +2823,13 @@
         <v>9307</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -2880,13 +2838,13 @@
         <v>22717</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -2895,13 +2853,13 @@
         <v>32025</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2916,13 +2874,13 @@
         <v>745040</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="H5" s="7">
         <v>872</v>
@@ -2931,13 +2889,13 @@
         <v>971943</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>1624</v>
@@ -2946,13 +2904,13 @@
         <v>1716982</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,13 +2978,13 @@
         <v>45666</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -3035,13 +2993,13 @@
         <v>41152</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>81</v>
@@ -3050,13 +3008,13 @@
         <v>86818</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,13 +3029,13 @@
         <v>2030719</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H8" s="7">
         <v>1869</v>
@@ -3086,13 +3044,13 @@
         <v>1947148</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="M8" s="7">
         <v>3779</v>
@@ -3101,13 +3059,13 @@
         <v>3977867</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,7 +3121,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3175,13 +3133,13 @@
         <v>14162</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3190,13 +3148,13 @@
         <v>14668</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -3205,13 +3163,13 @@
         <v>28830</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,13 +3184,13 @@
         <v>532724</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H11" s="7">
         <v>513</v>
@@ -3241,13 +3199,13 @@
         <v>534472</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M11" s="7">
         <v>1001</v>
@@ -3256,13 +3214,13 @@
         <v>1067196</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,13 +3288,13 @@
         <v>69134</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
@@ -3348,10 +3306,10 @@
         <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="M13" s="7">
         <v>137</v>
@@ -3360,13 +3318,13 @@
         <v>147672</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>198</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,13 +3339,13 @@
         <v>3308484</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H14" s="7">
         <v>3254</v>
@@ -3396,13 +3354,13 @@
         <v>3453562</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M14" s="7">
         <v>6404</v>
@@ -3411,13 +3369,13 @@
         <v>6762046</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>203</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,7 +3431,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3492,7 +3450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C78FAA4-B517-46C8-BAD8-769024F47607}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4960AA28-1931-4952-92AD-B94DA54E4E1D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3509,7 +3467,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3616,13 +3574,13 @@
         <v>21097</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H4" s="7">
         <v>62</v>
@@ -3631,13 +3589,13 @@
         <v>45348</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M4" s="7">
         <v>89</v>
@@ -3646,13 +3604,13 @@
         <v>66445</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,13 +3625,13 @@
         <v>518945</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="H5" s="7">
         <v>1361</v>
@@ -3682,13 +3640,13 @@
         <v>786220</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="M5" s="7">
         <v>2023</v>
@@ -3697,13 +3655,13 @@
         <v>1305166</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,13 +3729,13 @@
         <v>49407</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>214</v>
       </c>
       <c r="H7" s="7">
         <v>90</v>
@@ -3786,13 +3744,13 @@
         <v>59525</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="M7" s="7">
         <v>136</v>
@@ -3801,13 +3759,13 @@
         <v>108932</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>226</v>
+        <v>53</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,28 +3780,28 @@
         <v>2112615</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>219</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>229</v>
+        <v>84</v>
       </c>
       <c r="H8" s="7">
         <v>2830</v>
       </c>
       <c r="I8" s="7">
-        <v>2189270</v>
+        <v>2189271</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="M8" s="7">
         <v>4776</v>
@@ -3852,13 +3810,13 @@
         <v>4301885</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>234</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,7 +3843,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248795</v>
+        <v>2248796</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3914,7 +3872,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3926,13 +3884,13 @@
         <v>8092</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>237</v>
+        <v>18</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -3941,13 +3899,13 @@
         <v>16503</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>239</v>
+        <v>121</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -3956,13 +3914,13 @@
         <v>24594</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,13 +3935,13 @@
         <v>664947</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="H11" s="7">
         <v>979</v>
@@ -3992,13 +3950,13 @@
         <v>697383</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>248</v>
+        <v>128</v>
       </c>
       <c r="M11" s="7">
         <v>1651</v>
@@ -4007,13 +3965,13 @@
         <v>1362332</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>234</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,13 +4039,13 @@
         <v>78595</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>251</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
         <v>177</v>
@@ -4096,13 +4054,13 @@
         <v>121376</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
         <v>259</v>
@@ -4111,13 +4069,13 @@
         <v>199971</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,13 +4090,13 @@
         <v>3296509</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>5170</v>
@@ -4147,13 +4105,13 @@
         <v>3672874</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
       <c r="M14" s="7">
         <v>8450</v>
@@ -4162,13 +4120,13 @@
         <v>6969383</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,7 +4182,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A04-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D8C2C71-0F51-4D2F-9879-6C1D92B80B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C868076-89CB-4AD4-B86F-05A402DB6920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BE1EAB94-ED43-4891-9852-A6C91E78DA72}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{593C147B-403A-4E7A-AF64-2500643E4AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="247">
   <si>
     <t>Población que ha consumido antibióticos en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -638,154 +638,148 @@
     <t>Población que ha consumido antibióticos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
   </si>
   <si>
     <t>98,8%</t>
   </si>
   <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95CCA16-A407-42FA-938E-E0C35E1F225D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5DBDA8-F06A-48BD-9C50-76C5BD380A22}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1399,7 +1393,7 @@
         <v>2263</v>
       </c>
       <c r="N5" s="7">
-        <v>2280722</v>
+        <v>2280721</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1450,7 +1444,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1554,7 +1548,7 @@
         <v>3145</v>
       </c>
       <c r="N8" s="7">
-        <v>3223056</v>
+        <v>3223055</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1605,7 +1599,7 @@
         <v>3202</v>
       </c>
       <c r="N9" s="7">
-        <v>3280068</v>
+        <v>3280067</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1849,7 +1843,7 @@
         <v>3223</v>
       </c>
       <c r="I14" s="7">
-        <v>3304408</v>
+        <v>3304407</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>79</v>
@@ -1900,7 +1894,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1948,7 +1942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF79531-5EF3-41B7-B454-F2C33CEC153B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9673F835-2123-4B65-A820-2B5ADB9E0CC9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2699,7 +2693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EA111C-D87E-4331-B978-479D70BABF42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640FB42A-9B46-422A-B477-86417605EE3B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3211,7 +3205,7 @@
         <v>1001</v>
       </c>
       <c r="N11" s="7">
-        <v>1067196</v>
+        <v>1067197</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>189</v>
@@ -3262,7 +3256,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3450,7 +3444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4960AA28-1931-4952-92AD-B94DA54E4E1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09667C64-FFCC-4F93-A958-C070C56FF3E1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3571,13 +3565,13 @@
         <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>21097</v>
+        <v>20141</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>200</v>
@@ -3586,7 +3580,7 @@
         <v>62</v>
       </c>
       <c r="I4" s="7">
-        <v>45348</v>
+        <v>39714</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>201</v>
@@ -3601,16 +3595,16 @@
         <v>89</v>
       </c>
       <c r="N4" s="7">
-        <v>66445</v>
+        <v>59855</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>204</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,46 +3616,46 @@
         <v>662</v>
       </c>
       <c r="D5" s="7">
-        <v>518945</v>
+        <v>493311</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="H5" s="7">
         <v>1361</v>
       </c>
       <c r="I5" s="7">
-        <v>786220</v>
+        <v>712018</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>2023</v>
       </c>
       <c r="N5" s="7">
-        <v>1305166</v>
+        <v>1205328</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,7 +3667,7 @@
         <v>689</v>
       </c>
       <c r="D6" s="7">
-        <v>540042</v>
+        <v>513452</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3688,7 +3682,7 @@
         <v>1423</v>
       </c>
       <c r="I6" s="7">
-        <v>831568</v>
+        <v>751732</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3703,7 +3697,7 @@
         <v>2112</v>
       </c>
       <c r="N6" s="7">
-        <v>1371611</v>
+        <v>1265183</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3726,46 +3720,46 @@
         <v>46</v>
       </c>
       <c r="D7" s="7">
-        <v>49407</v>
+        <v>47320</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H7" s="7">
         <v>90</v>
       </c>
       <c r="I7" s="7">
-        <v>59525</v>
+        <v>55644</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
         <v>136</v>
       </c>
       <c r="N7" s="7">
-        <v>108932</v>
+        <v>102964</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>217</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,46 +3771,46 @@
         <v>1946</v>
       </c>
       <c r="D8" s="7">
-        <v>2112615</v>
+        <v>2243007</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>84</v>
+        <v>221</v>
       </c>
       <c r="H8" s="7">
         <v>2830</v>
       </c>
       <c r="I8" s="7">
-        <v>2189271</v>
+        <v>2181501</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>60</v>
+        <v>223</v>
       </c>
       <c r="M8" s="7">
         <v>4776</v>
       </c>
       <c r="N8" s="7">
-        <v>4301885</v>
+        <v>4424508</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>221</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>60</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,7 +3822,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3843,7 +3837,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2237145</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3858,7 +3852,7 @@
         <v>4912</v>
       </c>
       <c r="N9" s="7">
-        <v>4410817</v>
+        <v>4527472</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3881,13 +3875,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>8092</v>
+        <v>7734</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>18</v>
@@ -3896,28 +3890,28 @@
         <v>25</v>
       </c>
       <c r="I10" s="7">
-        <v>16503</v>
+        <v>15206</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>121</v>
+        <v>228</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
       </c>
       <c r="N10" s="7">
-        <v>24594</v>
+        <v>22940</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>228</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>229</v>
@@ -3932,7 +3926,7 @@
         <v>672</v>
       </c>
       <c r="D11" s="7">
-        <v>664947</v>
+        <v>638889</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>230</v>
@@ -3947,31 +3941,31 @@
         <v>979</v>
       </c>
       <c r="I11" s="7">
-        <v>697383</v>
+        <v>645257</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>232</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M11" s="7">
         <v>1651</v>
       </c>
       <c r="N11" s="7">
-        <v>1362332</v>
+        <v>1284146</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>236</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,7 +3977,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3998,7 +3992,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4013,7 +4007,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4036,46 +4030,46 @@
         <v>82</v>
       </c>
       <c r="D13" s="7">
-        <v>78595</v>
+        <v>75194</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>136</v>
+        <v>235</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c r="H13" s="7">
         <v>177</v>
       </c>
       <c r="I13" s="7">
-        <v>121376</v>
+        <v>110564</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M13" s="7">
         <v>259</v>
       </c>
       <c r="N13" s="7">
-        <v>199971</v>
+        <v>185759</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,46 +4081,46 @@
         <v>3280</v>
       </c>
       <c r="D14" s="7">
-        <v>3296509</v>
+        <v>3375208</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>143</v>
+        <v>241</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="H14" s="7">
         <v>5170</v>
       </c>
       <c r="I14" s="7">
-        <v>3672874</v>
+        <v>3538775</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M14" s="7">
         <v>8450</v>
       </c>
       <c r="N14" s="7">
-        <v>6969383</v>
+        <v>6913983</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>247</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>248</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,7 +4132,7 @@
         <v>3362</v>
       </c>
       <c r="D15" s="7">
-        <v>3375104</v>
+        <v>3450402</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4153,7 +4147,7 @@
         <v>5347</v>
       </c>
       <c r="I15" s="7">
-        <v>3794250</v>
+        <v>3649339</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4168,7 +4162,7 @@
         <v>8709</v>
       </c>
       <c r="N15" s="7">
-        <v>7169354</v>
+        <v>7099742</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
